--- a/src/test/resources/TestData/SkillRaryTestData.xlsx
+++ b/src/test/resources/TestData/SkillRaryTestData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sncsr\eclipse-workspace\CucumberSkillraryDemoApp_M10\src\test\resources\testData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TRACK QJSPIDERS\eclipse-workspace\CucumberTestNG_FW_A2\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E44F5A5-E971-4270-A913-E563187DE1E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B0E83CC-EB19-403E-99FA-116FED887620}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A43FAF97-B95A-4FB3-BD75-9F4A5088FBEC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A43FAF97-B95A-4FB3-BD75-9F4A5088FBEC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -88,7 +88,7 @@
     <t>Contact Info</t>
   </si>
   <si>
-    <t>C:\Users\sncsr\Downloads\WhatsApp Image 2023-08-01 at 21.22.01.jpeg</t>
+    <t>C:\Users\TRACK QJSPIDERS\Downloads\RPA.jpg</t>
   </si>
 </sst>
 </file>
@@ -510,19 +510,19 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="210" zoomScaleNormal="210" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" customWidth="1"/>
-    <col min="2" max="2" width="18.33203125" customWidth="1"/>
-    <col min="3" max="3" width="17.88671875" customWidth="1"/>
-    <col min="4" max="4" width="26.88671875" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" customWidth="1"/>
+    <col min="4" max="4" width="26.85546875" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -539,7 +539,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -554,7 +554,7 @@
       </c>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
@@ -565,7 +565,7 @@
       </c>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
@@ -576,7 +576,7 @@
       </c>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
@@ -587,7 +587,7 @@
       </c>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
@@ -598,7 +598,7 @@
       </c>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
@@ -609,7 +609,7 @@
       </c>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
@@ -620,7 +620,7 @@
       </c>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
@@ -648,7 +648,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
